--- a/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order. Members present will be permitted to submit written statements that will be included in the official record.    Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions and extraneous materials for the record subject to the length limitation in the rules.    South China Sea is one of the toughest and most persistent problems in this subcommittee's jurisdiction. These maritime and territorial disputes are universally recognized as a long-term security challenge.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman? If I can just ask for permission to give my opening statement after the witnesses.</t>
   </si>
   <si>
@@ -79,36 +73,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Etzioni</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Etzioni. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Oh, good. Professor of international affairs at the George Washington University. We thank the panel for joining us today and for their expertise, and I will start with you, Mr. Colby.</t>
   </si>
   <si>
-    <t>Colby</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Colby. Mr. Chairman, Ranking Member Sherman and distinguished members of the committee, thank you very much for inviting me to testify today on the South China Sea.    It's an honor to speak with you on this matter of such importance to our Nation and to the Asia Pacific as a whole.    Put forthrightly, the United States should press back more firmly against China's assertiveness in the South China Sea both directly and indirectly, and Washington should be must less shy about doing so.    This course is likely to be more successful and stabilizing and, indeed, actually less risky than our current one, which is defined by a strange hesitancy on our part.    Right now, China appears to believe it can rock the boat and that we will take pains to right it. We seem to be more nervous about China's will and ability to escalate and the threat that such firmness would have on our broader relationship with Beijing than they are. This is strange, because despite what President Duterte says, we still hold many commanding advantages.    Our hesitancy seems to be leading Beijing to think it can continue pushing into the South China Sea and beyond. But, it is also leading regional states, both allies and partners as well as fence-sitters, to wonder whether it is prudent to work with us to balance and constrain China's assertiveness.    If Washington is so anxious and tepid when we are still so strong, what does that say about our willingness to act as China grows stronger in the coming years? It certainly cannot and does not inspire confidence.    Rectifying the situation requires resolute American leadership and sustained strength. Otherwise, states in the region are likely to be pulled toward accommodating rather than balancing Beijing.    Moreover, the situation today is more serious than is often admitted. The perception of American irresolution risks hardening into a judgment, and China's militarized islands in the Spratlys already pose more of a threat to U.S. forces and regional states than is commonly appreciated.    So what should we do? Our actions should be guided by two overarching principles. First, we need to demonstrate greater resolve and willingness to bear and assume risk.    Second, we need to build up our allies' and partners' military and economic strength. In the first category, we should do the following.    Conduct more FONOPs and conduct them more assertively, while describing their purpose and justification more candidly and unabashedly.    At the same time, we should also conduct intense presence operations beyond those designed to vindicate U.S. legal positions. We should further encourage other like-minded countries like Japan, Australia, India and France, which has offered to coordinate EU patrols, to conduct their own FONOPs and/or presence operations either with us or separately.    Secondly, we should shrink the white hull loophole China is exploiting by making clear we will respond to coercion or aggression by such ``white hull ships'' with whatever means we deem appropriate, including military force.    China must not get a free pass by using technically nonmilitary ships for coercion or worse.    Third, we should deter Beijing's militarization of Scarborough Shoal by showing resolve, demonstrating our capability and studying the merits of extending the mutual defense treaty with Manila to the shoal.    Resolve is important, but military and economic power are even more so. China will only realistically be constrained if we are sufficiently strong. Accordingly, we need to strengthen our own hand and those of like mind. Thus, we should do the following.    First, increase and extend U.S. military advantages and presence in the region. This means prioritizing and maintaining our conventional advantage in the Western Pacific through efforts like the Third Offset and related initiatives.    Congress should fund and support these initiatives forward into the next administration. It also means increasing combat-credible U.S. presence in the region including by continuing to shift forces and especially higher-end forces to the region.    Second, we should deepen military and other links with allies and partners and encourage their own indigenous efforts. This means expanding on the EDCA with Manila, despite the current turbulence in the relationship, capitalizing on Japan's interest in a broader footprint in the region and following through on openings to deepen engagement with states like India, Vietnam and Indonesia.    U.S. efforts should especially focus on building up like-minded states' ability to resist or complicate Chinese assertiveness, both at the gray zone level through assistance with maritime domain awareness and more patrol craft and the like, but also selectively at the higher end by helping to develop anti-access area denial capabilities of their own.    Third, and perhaps more importantly, we need to maintain U.S. economic leadership and leverage by ratifying TPP. A successful effort to balance China depends on a sense in the region of U.S. economic strength and leadership, especially in light of China's efforts to translate its own economic power into political leverage through efforts like the ``One Belt One Road'' initiative. TPP is crucial to such a successful effort.    Conversely, rejecting TPP would deal a blow, and perhaps a very formidable one, to the U.S. position in the region. The Congress should therefore provide its advice and consent to the pact's ratification as expeditiously as possible.    In sum, if the United States and other states fail to stop the expansion of China's power over the South China Sea, Beijing's ambitions are only likely to grow. If we succeed, however, a more stable and enduring balance is likely to result.    Accordingly, we must get the South China Sea right. I hope that the steps offered here would contribute to that goal. I look forward to any questions you might have.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Cheng.</t>
   </si>
   <si>
-    <t>Cheng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cheng. Chairman Salmon, Ranking Member Sherman, distinguished members of the committee, my name is Dean Cheng. I'm the senior research fellow for Chinese political and security affairs at The Heritage Foundation.    I would like to begin by expressing my appreciation for the opportunity to be here this afternoon and to note that the views I express are my own and should not be construed as representing any official position of The Heritage Foundation.    My comments today will focus on the military and security side of the growing Chinese challenge to Asian maritime security.    The past quarter century has seen a substantial improvement in the capabilities of the Chinese People's Liberation Army, or     With the PLA Navy we have seen the introduction of several new classes of surface combatants. The newest Chinese destroyer, the Type 052D, is comparable to our own Arleigh Burke DDG-51 Class.    The Chinese Type 054A frigate is both more capable and, let me note here, more reliable than our Littoral Combat Ship, both types of which are now sidelined due to engineering problems.    We know the Chinese are producing multiple classes of submarines and at least one new aircraft carrier is under construction.    China's naval combatants are among the youngest in average age, thanks to this major shipbuilding program. As important, China is not neglecting the key issue of maritime support.    China is building a fleet train of logistic support ships which will allow the Chinese navy to operate for extended periods away from shore.    Chinese submarines operating in the Indian Ocean have been accompanied by submarine tenders, allowing them to operate for longer periods away from Chinese ports.    China, of course, has now also begun construction on a new facility in Djibouti, their first formal overseas military base, but probably not their last.    Given the importance of air power for the Asia Pacific region, it is worth noting how the PLA Air Force, or PLAAF, is working on both the J-20 and J-31 fifth generation fighters.    China is the only other nation to be fielding two stealth fighter programs at the same time. Chinese bombers are now overflying islands in the South China Sea, and as these aircraft can be equipped with long-range anti-ship and land attack cruise missiles, the signal being sent to China's neighbors are very clear.    Again, the Chinese are also not neglecting the haft of the spear even as they sharpen the tip. China has introduced air transports to allow power projection and electronic warfare aircraft and AWACS to allow them the same kinds of advantages that our Air Force enjoys.    Most worrisome is the new PLA Strategic Support Force, which brings together under one service space warfare, electronic warfare and network warfare capabilities, reflecting the ongoing Chinese effort to establish information dominance, which the Chinese see as the central key to winning future what they term local wars under informationized conditions.    The objection of all of these various force improvements at the military level is to support China's move from a near-shore strategy of the 1960s to the near-sea strategy of the 1990s to today's far-seas approach, pushing Chinese military capability ever more extended distances from China's shores and deeper into the central Pacific and the Indian Ocean.    The shift reflects not only Chinese growing capabilities, but a broader transition in Chinese strategic thinking, which affects not only the military but national security thinking as a whole.    For the military, the extending reach is part of China's new historic missions, and while we must never forget that the People's Liberation Army is a party army where every officer is a member of the Chinese Communist Party, it nonetheless has also been charged with the responsibility of defending party and also national interests. Those national interests now include the seas, outer space and the electromagnetic spectrum.    China increasingly sees its fundamental security as tied to the world's oceans. This should not be surprising. China's economic center of gravity is now on its shores.    There is no longer a buffer of millions of square miles of territory between the Chinese economic center and the ocean's from which American and other allied capabilities spring.    At the same time, China itself is also more dependent on the sea for access to resources of power--Chinese economic growth. China is now a net importer of not only oil but food, including wheat, barley, sorghum and even rice.    Indeed, China is unique in being a traditional continental power that has become dependent on the seas. Napoleonic France, Wilhelmine Germany, the Soviet Union--all of these were continental powers for whom navies were luxuries or added benefits.    For China, it has become a central part of their economic existence. Unfortunately, as a result, the Chinese effort to safeguard its interests is expressed by extending Chinese sovereignty over what had been international common spaces. China's efforts to bring the South China Sea into the umbrella of Chinese control has led to remarkably intemperate remarks regarding the Permanent Court of Arbitration's findings.    The Chinese foreign minister termed them, ``a political farce.'' The Ambassador to the United States termed them, ``a matter of professional incompetence.''    What this suggests, and what this should serve as a warning, is that the United States, as the keystone upholding international order and the main advocate for international law and norms, must respond strongly through a combination of FONOPs, arms sales, robust presence but, above all, countering Chinese efforts at political warfare to undermine the legitimacy of the international order.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Searight.</t>
   </si>
   <si>
-    <t>Searight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Searight. Thank you so much for this opportunity to talk about regional reactions to the Arbital Tribunal ruling.    Just a little bit over 2 months ago on July 12th, the Arbital Tribunal, under the United Nations Convention on the Law of the Sea, or UNCLOS, issued its landmark ruling in the case brought by the Philippines against China involving maritime rights and entitlements in the South China Sea.    In the weeks and months that have followed, the reaction to the ruling by the parties involved and others have played out more or less as expected.    But what was very unexpected was the breadth and the decisiveness of the ruling itself, which delivered an overwhelming legal victory to the Philippines and, by logical extension, to other claimants in the South China Sea in a decisive legal defeat to China.    In essence, the ruling does four things. First, it ruled that China's nine-dash line is not consistent with the Law of the Sea and invalidated Beijing's claims to historic rights throughout the nine-dash line.    Second, features in the South China Sea are, at most, entitled to only 12 nautical mile territorial zones and do not generate 200-mile exclusive economic zones or continental shelves.    Third, the panel found that China infringed on the traditional fishing rights of Filipinos by not allowing them to fish at Scarborough Shoal.    And fourth, the tribunal held that China's in violation of its obligations under UNCLOS to preserve and protect the marine environment, finding that it created massive environmental damage through its reclamation activities.    Now, the reactions to the ruling were very much predictable and predicated in most ways. China reacted swiftly and predictably, denouncing the tribunal as unjust and unlawful, declaring the award as null and void and has no binding force.    And Former State Counselor Dai Bingguo, in a visit to DC just before the ruling, said that the ruling would be treated as just a piece of trash paper.    The international community, led by the United States, including Japan, Australia, New Zealand and Canada, all put out very strong statements underscoring that the ruling was final and legally binding on both parties.    And, also of note, India put out a relatively strong statement as well. The ASEAN reactions to the ruling were also rather predictable, with Vietnam, Singapore, Malaysia and, somewhat surprisingly, Myanmar, using language that originated in the Sunnylands declaration in support for resolving disputes peacefully through ``diplomatic and legal processes'' in accordance with international law and UNCLOS.    Indonesia and Thailand also put out statements that were somewhat less robust, and the Philippines gave a very low-key response to its resounding legal victory. President Duterte had previously signaled that he wanted to move toward a soft landing with China.    So, Manila signaled its willingness to move forward to find a way forward toward talks to resolve the disputes and President Duterte dispatched Former President Fidel Ramos to Hong Kong to meet with Chinese officials.    These talks did not appear to yield any real progress, and there is still a major disagreement between the Philippines and China over whether the ruling should be the basis for any talks to resolve competing claims.    Duterte has also done a number of things, as Chairman Salmon elucidated. He has made clear that he wants the Philippines to have a more independent foreign policy. But what that precisely means I think is still being--still being played out.    The ASEAN reaction as a whole, as a grouping, ASEAN failed to project real unity in its response. It did not release a joint statement in the immediate aftermath.    It did have a joint communique that was issued 2 weeks later when the foreign ministers of ASEAN met in Vientiane, Laos, and this joint communique had a very long section on the South China Sea, which acknowledged concerns by some ministers on land reclamation and escalation of activities at sea which have eroded trust and confidence, increased tensions and may undermine peace, security and stability in the region.    So this was a way of providing an out to countries like Cambodia, which did not want to be on the record expressing concerns while giving voice to some of the concerns from Vietnam, the Philippines and others.    The communique also used the Sunnylands language of ``full respect for legal and diplomatic processes'' but, interestingly, it lifted this language out of the section on the South China Sea, and put it in the introductory section of the joint communique, reportedly at the request of Cambodia.    So as--you know, once again, this kind of revealed that ASEAN is a glass half empty and a glass half full in terms of its ability to deal with this issue and stand as a counterweight to China.    It is easy to be disappointed with the ASEAN, but I think it is very important to continue the engagement. We have seen repeatedly the positive effects that the President's engagement at Sunnylands has had on the grouping and their ability to signal some limited degree of unity and cohesion on this issue.    Secretary Carter is hosting the 10 ASEAN defense ministers in Hawaii next week, and it'll be very interesting to see what comes out of that.    Obviously, the most important factor in terms of how the impact of the ruling will have will be very much about how China will respond.    But let me just say three quick words about what role the United States can play.    First, the United States should continue to visibly demonstrate that it will continue to fly, sail and operate wherever international law allows by conducting regular freedom of navigation operations and other presence operations in the South China Sea.    Second, the United States should continue and accelerate capacity-building and training under the Maritime Security Initiative, foreign military financing and IMET. This is critical for enhancing capabilities of our key partners such as the Philippines, Vietnam, Indonesia and Malaysia and increasing interoperability with U.S. forces.    And, finally ratifying UNCLOS would be a very positive step to take as well. The ruling of the Arbital Tribunal panel and regional reactions to the ruling cast a glaring light on the mismatch between U.S. rhetoric, on the importance of upholding international law and the need for all countries to be bound by rules and norms and the fact that the United States has not yet ratified the treaty.    Simply put, our failure to ratify the treaty undermines our ability to fully work with our allies and partners in the South China Sea and insist that UNCLOS be used as a basis for resolving claims and arbitrating disputes.    China says this quite loudly in the region. But I would note that other countries say this more quietly as well.</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Mountain Dew, huh? Mountain Dew. I think I'd be more disturbed if they came in----</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Great. Thank you, Mr. Chairman, and thank the witnesses.    I look at this slightly differently than my colleague, Mr. Sherman, in the sense that China is not following the rule of law and how we approach this is certainly important in today and the message that we send to the region about our relationship with the region--our commitment to the region.    But it also sets the stage for, you know, avoiding a kinetic conflict, you know, a decade from now or two decades from now.    Absolutely, Dr. Etzioni, we do hold military advantages far and away right now. But what we are doing is we are engaging in a region that is unsure of what the future looks like, that increasingly is unsure of what our commitment to the region looks like. You know, there's very much an interest in building commerce and trade and economic relationships.    Trade is a tool of diplomacy. Trade is about a lot more than the movement of goods and services. It's also an opportunity to reduce future tensions with China and bring China into the fold here.    So as opposed to always looking at this as an adversarial relationship--I mean, China certainly is probing us to see what we are doing and, you know, if we stick with that Mountain Dew analogy, if they go in and walk out without paying for that Mountain Dew today, tomorrow it might be a six-pack of Mountain Dew. They're testing to see what we will do and what our response will be.    That is why how we respond and stand up in a forceful way to the South China Sea. Yes, I am not worried that that is going to tip the balance of power today, but if we do nothing, well, they will take a next step.    And the reason why the South China Sea is so important: It is one of the most important throughways and seaways of goods that are moving in and out of Asia.    So making sure there's rule of law, that those seaways are open are not just important to us, but they're important to the countries in that region.    And right now, you know, with the fact that TPP looks pretty precarious, they're wondering what we are going to do with the South China Sea.    There is a real conversation going on in the region about what our commitment is. It's not all pessimistic.    I mean, the relationships that are building with India, you know, the fact that they are now our largest partner in naval exercises and the growing at least military-to-military, defense-to-defense partnership with India is a positive step.    The recommitment to the Philippines, to Vietnam, the opening up of these relationships are all positive steps. And it is not appropriate to say well, we are just focused on China. We are doing multiple things.    Clearly, North Korea is a real threat. Clearly, an unstable Pakistan is a real threat. Clearly, you know, tensions in the South China Sea are real threats.    What we want to avoid, though, is aircraft that are just flying around or ships that--you know, much of what you see happening in the Persian Gulf right now where you see provocative movements, one mistake leads to a war sometimes or leads to conflict. We want to avoid that.    I also think it is in China's interest. If we have this leverage, if we have economic leverage as well as military leverage, it does give us an opportunity to pull China into--to have a seat at the table and to talk about how we create this partnership.    They clearly are a major force in the 21st century. Let's try to figure out how we move this in a direction of mutual benefit and mutual partnership as opposed to adversarial relationships.    I guess, you know, the minute I have left if you'd like to talk about why this is important in addressing today in the context of avoiding that conflict a decade from now. Mr. Colby.</t>
   </si>
   <si>
@@ -272,9 +248,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman, and I have to say it is been a very interesting hearing, so I commend you for bringing this quality panel here together. Really, it has been very interesting.    Mr. Cheng, let me begin with you, if I can. President Reagan famously had the goal of a 600-ship Navy. Does President Obama share that goal?</t>
@@ -739,11 +712,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,13 +734,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -791,11 +760,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -815,13 +782,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -843,11 +808,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -867,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -895,11 +856,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -919,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -947,11 +904,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -971,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -999,11 +952,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1023,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1051,11 +1000,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1075,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1101,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1129,11 +1072,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1153,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1181,11 +1120,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1205,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1233,11 +1168,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1257,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1285,11 +1216,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1309,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1337,11 +1264,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1361,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1389,11 +1312,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1413,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1439,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1465,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1491,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1517,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1543,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1569,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1595,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1621,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1647,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1673,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1699,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1725,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1751,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1777,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1803,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1829,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1857,11 +1744,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1881,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1909,11 +1792,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1933,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1959,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1985,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2011,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2037,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>65</v>
-      </c>
-      <c r="H52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2063,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2089,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2115,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2141,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2167,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2193,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2219,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2247,11 +2104,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2271,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2297,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2325,11 +2176,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2349,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2375,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2401,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2427,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2453,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2481,11 +2320,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2505,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2533,11 +2368,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2557,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2585,11 +2416,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2609,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2635,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2661,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2687,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2713,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2739,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2765,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2791,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2817,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2843,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2869,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2897,11 +2704,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order. Members present will be permitted to submit written statements that will be included in the official record.    Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions and extraneous materials for the record subject to the length limitation in the rules.    South China Sea is one of the toughest and most persistent problems in this subcommittee's jurisdiction. These maritime and territorial disputes are universally recognized as a long-term security challenge.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman? If I can just ask for permission to give my opening statement after the witnesses.</t>
   </si>
   <si>
@@ -73,24 +88,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Etzioni</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Etzioni. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Oh, good. Professor of international affairs at the George Washington University. We thank the panel for joining us today and for their expertise, and I will start with you, Mr. Colby.</t>
   </si>
   <si>
+    <t>Colby</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Colby. Mr. Chairman, Ranking Member Sherman and distinguished members of the committee, thank you very much for inviting me to testify today on the South China Sea.    It's an honor to speak with you on this matter of such importance to our Nation and to the Asia Pacific as a whole.    Put forthrightly, the United States should press back more firmly against China's assertiveness in the South China Sea both directly and indirectly, and Washington should be must less shy about doing so.    This course is likely to be more successful and stabilizing and, indeed, actually less risky than our current one, which is defined by a strange hesitancy on our part.    Right now, China appears to believe it can rock the boat and that we will take pains to right it. We seem to be more nervous about China's will and ability to escalate and the threat that such firmness would have on our broader relationship with Beijing than they are. This is strange, because despite what President Duterte says, we still hold many commanding advantages.    Our hesitancy seems to be leading Beijing to think it can continue pushing into the South China Sea and beyond. But, it is also leading regional states, both allies and partners as well as fence-sitters, to wonder whether it is prudent to work with us to balance and constrain China's assertiveness.    If Washington is so anxious and tepid when we are still so strong, what does that say about our willingness to act as China grows stronger in the coming years? It certainly cannot and does not inspire confidence.    Rectifying the situation requires resolute American leadership and sustained strength. Otherwise, states in the region are likely to be pulled toward accommodating rather than balancing Beijing.    Moreover, the situation today is more serious than is often admitted. The perception of American irresolution risks hardening into a judgment, and China's militarized islands in the Spratlys already pose more of a threat to U.S. forces and regional states than is commonly appreciated.    So what should we do? Our actions should be guided by two overarching principles. First, we need to demonstrate greater resolve and willingness to bear and assume risk.    Second, we need to build up our allies' and partners' military and economic strength. In the first category, we should do the following.    Conduct more FONOPs and conduct them more assertively, while describing their purpose and justification more candidly and unabashedly.    At the same time, we should also conduct intense presence operations beyond those designed to vindicate U.S. legal positions. We should further encourage other like-minded countries like Japan, Australia, India and France, which has offered to coordinate EU patrols, to conduct their own FONOPs and/or presence operations either with us or separately.    Secondly, we should shrink the white hull loophole China is exploiting by making clear we will respond to coercion or aggression by such ``white hull ships'' with whatever means we deem appropriate, including military force.    China must not get a free pass by using technically nonmilitary ships for coercion or worse.    Third, we should deter Beijing's militarization of Scarborough Shoal by showing resolve, demonstrating our capability and studying the merits of extending the mutual defense treaty with Manila to the shoal.    Resolve is important, but military and economic power are even more so. China will only realistically be constrained if we are sufficiently strong. Accordingly, we need to strengthen our own hand and those of like mind. Thus, we should do the following.    First, increase and extend U.S. military advantages and presence in the region. This means prioritizing and maintaining our conventional advantage in the Western Pacific through efforts like the Third Offset and related initiatives.    Congress should fund and support these initiatives forward into the next administration. It also means increasing combat-credible U.S. presence in the region including by continuing to shift forces and especially higher-end forces to the region.    Second, we should deepen military and other links with allies and partners and encourage their own indigenous efforts. This means expanding on the EDCA with Manila, despite the current turbulence in the relationship, capitalizing on Japan's interest in a broader footprint in the region and following through on openings to deepen engagement with states like India, Vietnam and Indonesia.    U.S. efforts should especially focus on building up like-minded states' ability to resist or complicate Chinese assertiveness, both at the gray zone level through assistance with maritime domain awareness and more patrol craft and the like, but also selectively at the higher end by helping to develop anti-access area denial capabilities of their own.    Third, and perhaps more importantly, we need to maintain U.S. economic leadership and leverage by ratifying TPP. A successful effort to balance China depends on a sense in the region of U.S. economic strength and leadership, especially in light of China's efforts to translate its own economic power into political leverage through efforts like the ``One Belt One Road'' initiative. TPP is crucial to such a successful effort.    Conversely, rejecting TPP would deal a blow, and perhaps a very formidable one, to the U.S. position in the region. The Congress should therefore provide its advice and consent to the pact's ratification as expeditiously as possible.    In sum, if the United States and other states fail to stop the expansion of China's power over the South China Sea, Beijing's ambitions are only likely to grow. If we succeed, however, a more stable and enduring balance is likely to result.    Accordingly, we must get the South China Sea right. I hope that the steps offered here would contribute to that goal. I look forward to any questions you might have.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Cheng.</t>
   </si>
   <si>
+    <t>Cheng</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cheng. Chairman Salmon, Ranking Member Sherman, distinguished members of the committee, my name is Dean Cheng. I'm the senior research fellow for Chinese political and security affairs at The Heritage Foundation.    I would like to begin by expressing my appreciation for the opportunity to be here this afternoon and to note that the views I express are my own and should not be construed as representing any official position of The Heritage Foundation.    My comments today will focus on the military and security side of the growing Chinese challenge to Asian maritime security.    The past quarter century has seen a substantial improvement in the capabilities of the Chinese People's Liberation Army, or     With the PLA Navy we have seen the introduction of several new classes of surface combatants. The newest Chinese destroyer, the Type 052D, is comparable to our own Arleigh Burke DDG-51 Class.    The Chinese Type 054A frigate is both more capable and, let me note here, more reliable than our Littoral Combat Ship, both types of which are now sidelined due to engineering problems.    We know the Chinese are producing multiple classes of submarines and at least one new aircraft carrier is under construction.    China's naval combatants are among the youngest in average age, thanks to this major shipbuilding program. As important, China is not neglecting the key issue of maritime support.    China is building a fleet train of logistic support ships which will allow the Chinese navy to operate for extended periods away from shore.    Chinese submarines operating in the Indian Ocean have been accompanied by submarine tenders, allowing them to operate for longer periods away from Chinese ports.    China, of course, has now also begun construction on a new facility in Djibouti, their first formal overseas military base, but probably not their last.    Given the importance of air power for the Asia Pacific region, it is worth noting how the PLA Air Force, or PLAAF, is working on both the J-20 and J-31 fifth generation fighters.    China is the only other nation to be fielding two stealth fighter programs at the same time. Chinese bombers are now overflying islands in the South China Sea, and as these aircraft can be equipped with long-range anti-ship and land attack cruise missiles, the signal being sent to China's neighbors are very clear.    Again, the Chinese are also not neglecting the haft of the spear even as they sharpen the tip. China has introduced air transports to allow power projection and electronic warfare aircraft and AWACS to allow them the same kinds of advantages that our Air Force enjoys.    Most worrisome is the new PLA Strategic Support Force, which brings together under one service space warfare, electronic warfare and network warfare capabilities, reflecting the ongoing Chinese effort to establish information dominance, which the Chinese see as the central key to winning future what they term local wars under informationized conditions.    The objection of all of these various force improvements at the military level is to support China's move from a near-shore strategy of the 1960s to the near-sea strategy of the 1990s to today's far-seas approach, pushing Chinese military capability ever more extended distances from China's shores and deeper into the central Pacific and the Indian Ocean.    The shift reflects not only Chinese growing capabilities, but a broader transition in Chinese strategic thinking, which affects not only the military but national security thinking as a whole.    For the military, the extending reach is part of China's new historic missions, and while we must never forget that the People's Liberation Army is a party army where every officer is a member of the Chinese Communist Party, it nonetheless has also been charged with the responsibility of defending party and also national interests. Those national interests now include the seas, outer space and the electromagnetic spectrum.    China increasingly sees its fundamental security as tied to the world's oceans. This should not be surprising. China's economic center of gravity is now on its shores.    There is no longer a buffer of millions of square miles of territory between the Chinese economic center and the ocean's from which American and other allied capabilities spring.    At the same time, China itself is also more dependent on the sea for access to resources of power--Chinese economic growth. China is now a net importer of not only oil but food, including wheat, barley, sorghum and even rice.    Indeed, China is unique in being a traditional continental power that has become dependent on the seas. Napoleonic France, Wilhelmine Germany, the Soviet Union--all of these were continental powers for whom navies were luxuries or added benefits.    For China, it has become a central part of their economic existence. Unfortunately, as a result, the Chinese effort to safeguard its interests is expressed by extending Chinese sovereignty over what had been international common spaces. China's efforts to bring the South China Sea into the umbrella of Chinese control has led to remarkably intemperate remarks regarding the Permanent Court of Arbitration's findings.    The Chinese foreign minister termed them, ``a political farce.'' The Ambassador to the United States termed them, ``a matter of professional incompetence.''    What this suggests, and what this should serve as a warning, is that the United States, as the keystone upholding international order and the main advocate for international law and norms, must respond strongly through a combination of FONOPs, arms sales, robust presence but, above all, countering Chinese efforts at political warfare to undermine the legitimacy of the international order.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Searight.</t>
   </si>
   <si>
+    <t>Searight</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Searight. Thank you so much for this opportunity to talk about regional reactions to the Arbital Tribunal ruling.    Just a little bit over 2 months ago on July 12th, the Arbital Tribunal, under the United Nations Convention on the Law of the Sea, or UNCLOS, issued its landmark ruling in the case brought by the Philippines against China involving maritime rights and entitlements in the South China Sea.    In the weeks and months that have followed, the reaction to the ruling by the parties involved and others have played out more or less as expected.    But what was very unexpected was the breadth and the decisiveness of the ruling itself, which delivered an overwhelming legal victory to the Philippines and, by logical extension, to other claimants in the South China Sea in a decisive legal defeat to China.    In essence, the ruling does four things. First, it ruled that China's nine-dash line is not consistent with the Law of the Sea and invalidated Beijing's claims to historic rights throughout the nine-dash line.    Second, features in the South China Sea are, at most, entitled to only 12 nautical mile territorial zones and do not generate 200-mile exclusive economic zones or continental shelves.    Third, the panel found that China infringed on the traditional fishing rights of Filipinos by not allowing them to fish at Scarborough Shoal.    And fourth, the tribunal held that China's in violation of its obligations under UNCLOS to preserve and protect the marine environment, finding that it created massive environmental damage through its reclamation activities.    Now, the reactions to the ruling were very much predictable and predicated in most ways. China reacted swiftly and predictably, denouncing the tribunal as unjust and unlawful, declaring the award as null and void and has no binding force.    And Former State Counselor Dai Bingguo, in a visit to DC just before the ruling, said that the ruling would be treated as just a piece of trash paper.    The international community, led by the United States, including Japan, Australia, New Zealand and Canada, all put out very strong statements underscoring that the ruling was final and legally binding on both parties.    And, also of note, India put out a relatively strong statement as well. The ASEAN reactions to the ruling were also rather predictable, with Vietnam, Singapore, Malaysia and, somewhat surprisingly, Myanmar, using language that originated in the Sunnylands declaration in support for resolving disputes peacefully through ``diplomatic and legal processes'' in accordance with international law and UNCLOS.    Indonesia and Thailand also put out statements that were somewhat less robust, and the Philippines gave a very low-key response to its resounding legal victory. President Duterte had previously signaled that he wanted to move toward a soft landing with China.    So, Manila signaled its willingness to move forward to find a way forward toward talks to resolve the disputes and President Duterte dispatched Former President Fidel Ramos to Hong Kong to meet with Chinese officials.    These talks did not appear to yield any real progress, and there is still a major disagreement between the Philippines and China over whether the ruling should be the basis for any talks to resolve competing claims.    Duterte has also done a number of things, as Chairman Salmon elucidated. He has made clear that he wants the Philippines to have a more independent foreign policy. But what that precisely means I think is still being--still being played out.    The ASEAN reaction as a whole, as a grouping, ASEAN failed to project real unity in its response. It did not release a joint statement in the immediate aftermath.    It did have a joint communique that was issued 2 weeks later when the foreign ministers of ASEAN met in Vientiane, Laos, and this joint communique had a very long section on the South China Sea, which acknowledged concerns by some ministers on land reclamation and escalation of activities at sea which have eroded trust and confidence, increased tensions and may undermine peace, security and stability in the region.    So this was a way of providing an out to countries like Cambodia, which did not want to be on the record expressing concerns while giving voice to some of the concerns from Vietnam, the Philippines and others.    The communique also used the Sunnylands language of ``full respect for legal and diplomatic processes'' but, interestingly, it lifted this language out of the section on the South China Sea, and put it in the introductory section of the joint communique, reportedly at the request of Cambodia.    So as--you know, once again, this kind of revealed that ASEAN is a glass half empty and a glass half full in terms of its ability to deal with this issue and stand as a counterweight to China.    It is easy to be disappointed with the ASEAN, but I think it is very important to continue the engagement. We have seen repeatedly the positive effects that the President's engagement at Sunnylands has had on the grouping and their ability to signal some limited degree of unity and cohesion on this issue.    Secretary Carter is hosting the 10 ASEAN defense ministers in Hawaii next week, and it'll be very interesting to see what comes out of that.    Obviously, the most important factor in terms of how the impact of the ruling will have will be very much about how China will respond.    But let me just say three quick words about what role the United States can play.    First, the United States should continue to visibly demonstrate that it will continue to fly, sail and operate wherever international law allows by conducting regular freedom of navigation operations and other presence operations in the South China Sea.    Second, the United States should continue and accelerate capacity-building and training under the Maritime Security Initiative, foreign military financing and IMET. This is critical for enhancing capabilities of our key partners such as the Philippines, Vietnam, Indonesia and Malaysia and increasing interoperability with U.S. forces.    And, finally ratifying UNCLOS would be a very positive step to take as well. The ruling of the Arbital Tribunal panel and regional reactions to the ruling cast a glaring light on the mismatch between U.S. rhetoric, on the importance of upholding international law and the need for all countries to be bound by rules and norms and the fact that the United States has not yet ratified the treaty.    Simply put, our failure to ratify the treaty undermines our ability to fully work with our allies and partners in the South China Sea and insist that UNCLOS be used as a basis for resolving claims and arbitrating disputes.    China says this quite loudly in the region. But I would note that other countries say this more quietly as well.</t>
   </si>
   <si>
@@ -193,6 +220,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Mountain Dew, huh? Mountain Dew. I think I'd be more disturbed if they came in----</t>
   </si>
   <si>
@@ -238,6 +271,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Great. Thank you, Mr. Chairman, and thank the witnesses.    I look at this slightly differently than my colleague, Mr. Sherman, in the sense that China is not following the rule of law and how we approach this is certainly important in today and the message that we send to the region about our relationship with the region--our commitment to the region.    But it also sets the stage for, you know, avoiding a kinetic conflict, you know, a decade from now or two decades from now.    Absolutely, Dr. Etzioni, we do hold military advantages far and away right now. But what we are doing is we are engaging in a region that is unsure of what the future looks like, that increasingly is unsure of what our commitment to the region looks like. You know, there's very much an interest in building commerce and trade and economic relationships.    Trade is a tool of diplomacy. Trade is about a lot more than the movement of goods and services. It's also an opportunity to reduce future tensions with China and bring China into the fold here.    So as opposed to always looking at this as an adversarial relationship--I mean, China certainly is probing us to see what we are doing and, you know, if we stick with that Mountain Dew analogy, if they go in and walk out without paying for that Mountain Dew today, tomorrow it might be a six-pack of Mountain Dew. They're testing to see what we will do and what our response will be.    That is why how we respond and stand up in a forceful way to the South China Sea. Yes, I am not worried that that is going to tip the balance of power today, but if we do nothing, well, they will take a next step.    And the reason why the South China Sea is so important: It is one of the most important throughways and seaways of goods that are moving in and out of Asia.    So making sure there's rule of law, that those seaways are open are not just important to us, but they're important to the countries in that region.    And right now, you know, with the fact that TPP looks pretty precarious, they're wondering what we are going to do with the South China Sea.    There is a real conversation going on in the region about what our commitment is. It's not all pessimistic.    I mean, the relationships that are building with India, you know, the fact that they are now our largest partner in naval exercises and the growing at least military-to-military, defense-to-defense partnership with India is a positive step.    The recommitment to the Philippines, to Vietnam, the opening up of these relationships are all positive steps. And it is not appropriate to say well, we are just focused on China. We are doing multiple things.    Clearly, North Korea is a real threat. Clearly, an unstable Pakistan is a real threat. Clearly, you know, tensions in the South China Sea are real threats.    What we want to avoid, though, is aircraft that are just flying around or ships that--you know, much of what you see happening in the Persian Gulf right now where you see provocative movements, one mistake leads to a war sometimes or leads to conflict. We want to avoid that.    I also think it is in China's interest. If we have this leverage, if we have economic leverage as well as military leverage, it does give us an opportunity to pull China into--to have a seat at the table and to talk about how we create this partnership.    They clearly are a major force in the 21st century. Let's try to figure out how we move this in a direction of mutual benefit and mutual partnership as opposed to adversarial relationships.    I guess, you know, the minute I have left if you'd like to talk about why this is important in addressing today in the context of avoiding that conflict a decade from now. Mr. Colby.</t>
   </si>
   <si>
@@ -248,6 +287,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman, and I have to say it is been a very interesting hearing, so I commend you for bringing this quality panel here together. Really, it has been very interesting.    Mr. Cheng, let me begin with you, if I can. President Reagan famously had the goal of a 600-ship Navy. Does President Obama share that goal?</t>
@@ -662,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +715,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,2021 +737,2376 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>91</v>
+      </c>
       <c r="H78" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>91</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>91</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>91</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21606.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -707,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,2373 +752,2560 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
